--- a/src/analysis_examples/circadb/results_jtk/cosinor_10384725_rel_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10384725_rel_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2605141434461228, 0.37687661314503285]</t>
+          <t>[0.2612795722360312, 0.3761111843551244]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.889868261883976e-10</v>
+        <v>1.484461442657903e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>1.889868261883976e-10</v>
+        <v>1.484461442657903e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9560001668581553</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42764404129165223, 0.4870838518139746]</t>
+          <t>[0.42767007964355036, 0.4870578134620765]</t>
         </is>
       </c>
       <c r="U2" t="n">
